--- a/Beoordelingsmodel Opdrachten Programmeren I.xlsx
+++ b/Beoordelingsmodel Opdrachten Programmeren I.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jona/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jona/School/hz-1.1-pgm1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8865ED-59F1-224B-AEDB-7E140B05CCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED03D4C5-A45D-584B-B949-F8C1CD0CA8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="45280" windowHeight="23480" xr2:uid="{297771A6-4266-694D-B33E-1FD67B4641E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{297771A6-4266-694D-B33E-1FD67B4641E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5034A-95D4-9E4C-BC38-E500BE2DD0FC}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="160" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,7 +994,7 @@
       </c>
       <c r="B7" s="8">
         <f>B10+G10+L10+Q10+V10+AA10</f>
-        <v>231</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="21" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B8" s="19">
         <f>MIN(B7/60,IF(SMALL((B10,G10,L10,Q10,V10,AA10),2)&lt;40,5,10))</f>
-        <v>3.85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="6" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="L10" s="14">
         <f>L11+L12+L20+L30+L41</f>
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M10" s="14">
         <v>100</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="Q10" s="14">
         <f>Q11+Q12+Q27</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R10" s="14">
         <v>100</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="V10" s="14">
         <f>V11+V12+V26+V38</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W10" s="14">
         <v>100</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="Q12" s="7">
         <f>SUM(Q13:Q26)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="R12" s="7">
         <v>35</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="V12" s="7">
         <f>SUM(V13:V25)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W12" s="7">
         <v>30</v>
@@ -1244,7 +1244,9 @@
       <c r="P13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="17"/>
+      <c r="Q13" s="17">
+        <v>3</v>
+      </c>
       <c r="R13" s="10">
         <v>3</v>
       </c>
@@ -1252,7 +1254,9 @@
       <c r="U13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="V13" s="17"/>
+      <c r="V13" s="17">
+        <v>2</v>
+      </c>
       <c r="W13" s="10">
         <v>2</v>
       </c>
@@ -1300,7 +1304,9 @@
       <c r="P14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="15">
+        <v>3</v>
+      </c>
       <c r="R14" s="11">
         <v>3</v>
       </c>
@@ -1308,7 +1314,9 @@
       <c r="U14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="V14" s="15"/>
+      <c r="V14" s="15">
+        <v>4</v>
+      </c>
       <c r="W14" s="11">
         <v>4</v>
       </c>
@@ -1357,7 +1365,9 @@
       <c r="P15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="15"/>
+      <c r="Q15" s="15">
+        <v>3</v>
+      </c>
       <c r="R15" s="11">
         <v>3</v>
       </c>
@@ -1365,7 +1375,9 @@
       <c r="U15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V15" s="15"/>
+      <c r="V15" s="15">
+        <v>4</v>
+      </c>
       <c r="W15" s="11">
         <v>4</v>
       </c>
@@ -1413,7 +1425,9 @@
       <c r="P16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="15">
+        <v>4</v>
+      </c>
       <c r="R16" s="11">
         <v>4</v>
       </c>
@@ -1421,7 +1435,9 @@
       <c r="U16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="V16" s="15"/>
+      <c r="V16" s="15">
+        <v>3</v>
+      </c>
       <c r="W16" s="11">
         <v>3</v>
       </c>
@@ -1469,7 +1485,9 @@
       <c r="P17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="15"/>
+      <c r="Q17" s="15">
+        <v>3</v>
+      </c>
       <c r="R17" s="11">
         <v>3</v>
       </c>
@@ -1477,7 +1495,9 @@
       <c r="U17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V17" s="15"/>
+      <c r="V17" s="15">
+        <v>3</v>
+      </c>
       <c r="W17" s="11">
         <v>3</v>
       </c>
@@ -1528,7 +1548,9 @@
       <c r="P18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q18" s="17"/>
+      <c r="Q18" s="17">
+        <v>3</v>
+      </c>
       <c r="R18" s="11">
         <v>3</v>
       </c>
@@ -1536,7 +1558,9 @@
       <c r="U18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="V18" s="17"/>
+      <c r="V18" s="17">
+        <v>3</v>
+      </c>
       <c r="W18" s="11">
         <v>3</v>
       </c>
@@ -1584,7 +1608,9 @@
       <c r="P19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="17"/>
+      <c r="Q19" s="17">
+        <v>3</v>
+      </c>
       <c r="R19" s="11">
         <v>3</v>
       </c>
@@ -1592,7 +1618,9 @@
       <c r="U19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V19" s="17"/>
+      <c r="V19" s="17">
+        <v>3</v>
+      </c>
       <c r="W19" s="11">
         <v>3</v>
       </c>
@@ -1632,7 +1660,7 @@
       </c>
       <c r="L20" s="7">
         <f>SUM(L21:L29)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -1643,7 +1671,9 @@
       <c r="P20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="17">
+        <v>3</v>
+      </c>
       <c r="R20" s="11">
         <v>3</v>
       </c>
@@ -1651,7 +1681,9 @@
       <c r="U20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="V20" s="17"/>
+      <c r="V20" s="17">
+        <v>4</v>
+      </c>
       <c r="W20" s="11">
         <v>4</v>
       </c>
@@ -1692,7 +1724,9 @@
       <c r="K21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="L21" s="17">
+        <v>6</v>
+      </c>
       <c r="M21" s="10">
         <v>10</v>
       </c>
@@ -1700,7 +1734,9 @@
       <c r="P21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="17">
+        <v>2</v>
+      </c>
       <c r="R21" s="11">
         <v>3</v>
       </c>
@@ -1708,7 +1744,9 @@
       <c r="U21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="V21" s="17"/>
+      <c r="V21" s="17">
+        <v>4</v>
+      </c>
       <c r="W21" s="11">
         <v>4</v>
       </c>
@@ -1749,7 +1787,9 @@
       <c r="K22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="17">
+        <v>2</v>
+      </c>
       <c r="M22" s="10">
         <v>10</v>
       </c>
@@ -1757,7 +1797,9 @@
       <c r="P22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q22" s="17"/>
+      <c r="Q22" s="17">
+        <v>3</v>
+      </c>
       <c r="R22" s="11">
         <v>3</v>
       </c>
@@ -1765,7 +1807,9 @@
       <c r="U22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="17"/>
+      <c r="V22" s="17">
+        <v>-1</v>
+      </c>
       <c r="W22" s="10">
         <v>-3</v>
       </c>
@@ -1803,7 +1847,9 @@
       <c r="K23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="17"/>
+      <c r="L23" s="17">
+        <v>5</v>
+      </c>
       <c r="M23" s="10">
         <v>5</v>
       </c>
@@ -1811,7 +1857,9 @@
       <c r="P23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q23" s="17"/>
+      <c r="Q23" s="17">
+        <v>4</v>
+      </c>
       <c r="R23" s="11">
         <v>4</v>
       </c>
@@ -1857,7 +1905,9 @@
       <c r="K24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="17">
+        <v>5</v>
+      </c>
       <c r="M24" s="10">
         <v>5</v>
       </c>
@@ -1865,7 +1915,9 @@
       <c r="P24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q24" s="17"/>
+      <c r="Q24" s="17">
+        <v>-1</v>
+      </c>
       <c r="R24" s="10">
         <v>-4</v>
       </c>
@@ -1911,7 +1963,9 @@
       <c r="K25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="17">
+        <v>1</v>
+      </c>
       <c r="M25" s="10">
         <v>5</v>
       </c>
@@ -1973,7 +2027,9 @@
       <c r="P26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q26" s="17"/>
+      <c r="Q26" s="17">
+        <v>-1</v>
+      </c>
       <c r="R26" s="10">
         <v>-4</v>
       </c>
@@ -2032,7 +2088,7 @@
       </c>
       <c r="Q27" s="7">
         <f>SUM(Q28:Q39)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R27" s="7">
         <v>60</v>
@@ -2081,7 +2137,9 @@
       <c r="P28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="17">
+        <v>8</v>
+      </c>
       <c r="R28" s="10">
         <v>8</v>
       </c>
@@ -2117,7 +2175,9 @@
       <c r="P29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q29" s="17"/>
+      <c r="Q29" s="17">
+        <v>8</v>
+      </c>
       <c r="R29" s="10">
         <v>8</v>
       </c>
@@ -2147,7 +2207,7 @@
       </c>
       <c r="L30" s="7">
         <f>SUM(L31:L40)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -2156,7 +2216,9 @@
       <c r="P30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q30" s="17"/>
+      <c r="Q30" s="17">
+        <v>8</v>
+      </c>
       <c r="R30" s="10">
         <v>8</v>
       </c>
@@ -2184,7 +2246,9 @@
       <c r="K31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L31" s="17"/>
+      <c r="L31" s="17">
+        <v>5</v>
+      </c>
       <c r="M31" s="10">
         <v>5</v>
       </c>
@@ -2192,7 +2256,9 @@
       <c r="P31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q31" s="17"/>
+      <c r="Q31" s="17">
+        <v>8</v>
+      </c>
       <c r="R31" s="10">
         <v>8</v>
       </c>
@@ -2220,7 +2286,9 @@
       <c r="K32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="17"/>
+      <c r="L32" s="17">
+        <v>5</v>
+      </c>
       <c r="M32" s="10">
         <v>5</v>
       </c>
@@ -2228,7 +2296,9 @@
       <c r="P32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q32" s="17"/>
+      <c r="Q32" s="17">
+        <v>8</v>
+      </c>
       <c r="R32" s="10">
         <v>8</v>
       </c>
@@ -2256,7 +2326,9 @@
       <c r="K33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="17"/>
+      <c r="L33" s="17">
+        <v>5</v>
+      </c>
       <c r="M33" s="10">
         <v>5</v>
       </c>
@@ -2264,7 +2336,9 @@
       <c r="P33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q33" s="17"/>
+      <c r="Q33" s="17">
+        <v>10</v>
+      </c>
       <c r="R33" s="10">
         <v>10</v>
       </c>
@@ -2292,7 +2366,9 @@
       <c r="K34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="17"/>
+      <c r="L34" s="17">
+        <v>5</v>
+      </c>
       <c r="M34" s="10">
         <v>5</v>
       </c>
@@ -2300,7 +2376,9 @@
       <c r="P34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="17"/>
+      <c r="Q34" s="17">
+        <v>10</v>
+      </c>
       <c r="R34" s="10">
         <v>10</v>
       </c>
@@ -2318,7 +2396,9 @@
       <c r="K35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L35" s="17"/>
+      <c r="L35" s="17">
+        <v>3</v>
+      </c>
       <c r="M35" s="10">
         <v>5</v>
       </c>
@@ -2344,7 +2424,9 @@
       <c r="K36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="17"/>
+      <c r="L36" s="17">
+        <v>4</v>
+      </c>
       <c r="M36" s="10">
         <v>5</v>
       </c>
@@ -2396,7 +2478,9 @@
       <c r="K38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L38" s="17"/>
+      <c r="L38" s="17">
+        <v>-1</v>
+      </c>
       <c r="M38" s="10">
         <v>-6</v>
       </c>
@@ -2451,7 +2535,9 @@
       <c r="K40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="17"/>
+      <c r="L40" s="17">
+        <v>-2</v>
+      </c>
       <c r="M40" s="10">
         <v>-3</v>
       </c>

--- a/Beoordelingsmodel Opdrachten Programmeren I.xlsx
+++ b/Beoordelingsmodel Opdrachten Programmeren I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jona/School/hz-1.1-pgm1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED03D4C5-A45D-584B-B949-F8C1CD0CA8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029685EF-08FB-2B4A-A8FF-688917FED20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{297771A6-4266-694D-B33E-1FD67B4641E5}"/>
   </bookViews>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5034A-95D4-9E4C-BC38-E500BE2DD0FC}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
